--- a/biology/Botanique/Biarum/Biarum.xlsx
+++ b/biology/Botanique/Biarum/Biarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Biarum est un genre de plantes herbacées appartenant à la famille des Araceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,9 +579,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (23 mars 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (23 mars 2014) :
 Biarum aleppicum
 Biarum angustatum
 Biarum auraniticum
@@ -587,9 +605,9 @@
 Biarum straussii
 Biarum syriacum
 Biarum tenuifolium
-Selon GRIN            (23 mars 2014)[3] :
+Selon GRIN            (23 mars 2014) :
 Biarum bovei Blume
-Selon World Checklist of Selected Plant Families (WCSP)  (23 mars 2014)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (23 mars 2014) :
 Biarum aleppicum J.Thiébaut (1948)
 Biarum angustatum (Hook.f.) N.E.Br., J. Linn. Soc. (1880)
 Biarum auraniticum Mouterde (1966)
@@ -619,7 +637,7 @@
 sous-espèce Biarum tenuifolium subsp. idomenaeum P.C.Boyce &amp; Athanasiou (1991)
 sous-espèce Biarum tenuifolium subsp. tenuifolium
 sous-espèce Biarum tenuifolium subsp. zelebori (Schott) P.C.Boyce (2002)
-Selon NCBI  (23 mars 2014)[5] :
+Selon NCBI  (23 mars 2014) :
 Biarum arundanum
 Biarum bovei
 Biarum carduchorum
@@ -635,7 +653,7 @@
 sous-espèce Biarum tenuifolium subsp. abbreviatum
 sous-espèce Biarum tenuifolium subsp. idomenaeum
 sous-espèce Biarum tenuifolium subsp. zeleborii
-Selon The Plant List            (23 mars 2014)[6] :
+Selon The Plant List            (23 mars 2014) :
 Biarum aleppicum J.Thiébaut
 Biarum angustatum (Hook.f.) N.E.Br.
 Biarum auraniticum Mouterde
@@ -657,7 +675,7 @@
 Biarum straussii Engl.
 Biarum syriacum (Spreng.) Riedl
 Biarum tenuifolium (L.) Schott
-Selon Tropicos                                           (23 mars 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 mars 2014) (Attention liste brute contenant possiblement des synonymes) :
 Biarum abbreviatum Schott
 Biarum aleppicum J. Thiébaut
 Biarum alexandrinum Boiss.
